--- a/cmip6/models/iitm-esm/cmip6_cccr-iitm_iitm-esm_land.xlsx
+++ b/cmip6/models/iitm-esm/cmip6_cccr-iitm_iitm-esm_land.xlsx
@@ -48,7 +48,7 @@
     <t>IITM-ESM</t>
   </si>
   <si>
-    <t>Topic</t>
+    <t>Realm / Topic</t>
   </si>
   <si>
     <t>Land Surface</t>
